--- a/optaplanner-training-lab902-solution/data/workerrostering/import/roster-10spots-28days.xlsx
+++ b/optaplanner-training-lab902-solution/data/workerrostering/import/roster-10spots-28days.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4403" uniqueCount="174">
   <si>
     <t>Name</t>
   </si>
@@ -182,6 +182,78 @@
   </si>
   <si>
     <t>Amy A. P. Fox</t>
+  </si>
+  <si>
+    <t>Beth B. Q. Green</t>
+  </si>
+  <si>
+    <t>Chad C. R. Jones</t>
+  </si>
+  <si>
+    <t>Dan D. S. King</t>
+  </si>
+  <si>
+    <t>Elsa E. T. Li</t>
+  </si>
+  <si>
+    <t>Flo F. U. Poe</t>
+  </si>
+  <si>
+    <t>Gus G. V. Rye</t>
+  </si>
+  <si>
+    <t>Hugo H. W. Smith</t>
+  </si>
+  <si>
+    <t>Ivy I. X. Watt</t>
+  </si>
+  <si>
+    <t>Jay J. O. Cole</t>
+  </si>
+  <si>
+    <t>Amy A. Q. Green</t>
+  </si>
+  <si>
+    <t>Beth B. R. Jones</t>
+  </si>
+  <si>
+    <t>Chad C. S. King</t>
+  </si>
+  <si>
+    <t>Dan D. T. Li</t>
+  </si>
+  <si>
+    <t>Elsa E. U. Poe</t>
+  </si>
+  <si>
+    <t>Flo F. V. Rye</t>
+  </si>
+  <si>
+    <t>Gus G. W. Smith</t>
+  </si>
+  <si>
+    <t>Hugo H. X. Watt</t>
+  </si>
+  <si>
+    <t>Ivy I. O. Cole</t>
+  </si>
+  <si>
+    <t>Jay J. P. Fox</t>
+  </si>
+  <si>
+    <t>Amy A. R. Jones</t>
+  </si>
+  <si>
+    <t>Beth B. S. King</t>
+  </si>
+  <si>
+    <t>Chad C. T. Li</t>
+  </si>
+  <si>
+    <t>Dan D. U. Poe</t>
+  </si>
+  <si>
+    <t>Elsa E. V. Rye</t>
   </si>
   <si>
     <t>Skills</t>
@@ -912,8 +984,8 @@
       <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
-        <v>42</v>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -921,8 +993,8 @@
       <c r="F3" t="s">
         <v>42</v>
       </c>
-      <c r="G3" t="s">
-        <v>42</v>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H3" t="s">
         <v>42</v>
@@ -930,8 +1002,8 @@
       <c r="I3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" t="s">
-        <v>42</v>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K3" t="s">
         <v>42</v>
@@ -939,8 +1011,8 @@
       <c r="L3" t="s">
         <v>42</v>
       </c>
-      <c r="M3" t="s">
-        <v>42</v>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N3" t="s">
         <v>42</v>
@@ -948,8 +1020,8 @@
       <c r="O3" t="s">
         <v>42</v>
       </c>
-      <c r="P3" t="s">
-        <v>42</v>
+      <c r="P3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q3" t="s">
         <v>42</v>
@@ -957,8 +1029,8 @@
       <c r="R3" t="s">
         <v>42</v>
       </c>
-      <c r="S3" t="s">
-        <v>42</v>
+      <c r="S3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="T3" t="s">
         <v>42</v>
@@ -966,8 +1038,8 @@
       <c r="U3" t="s">
         <v>42</v>
       </c>
-      <c r="V3" t="s">
-        <v>42</v>
+      <c r="V3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="W3" t="s">
         <v>42</v>
@@ -975,8 +1047,8 @@
       <c r="X3" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" t="s">
-        <v>42</v>
+      <c r="Y3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Z3" t="s">
         <v>42</v>
@@ -984,8 +1056,8 @@
       <c r="AA3" t="s">
         <v>42</v>
       </c>
-      <c r="AB3" t="s">
-        <v>42</v>
+      <c r="AB3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AC3" t="s">
         <v>42</v>
@@ -993,8 +1065,8 @@
       <c r="AD3" t="s">
         <v>42</v>
       </c>
-      <c r="AE3" t="s">
-        <v>42</v>
+      <c r="AE3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AF3" t="s">
         <v>42</v>
@@ -1002,8 +1074,8 @@
       <c r="AG3" t="s">
         <v>42</v>
       </c>
-      <c r="AH3" t="s">
-        <v>42</v>
+      <c r="AH3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AI3" t="s">
         <v>42</v>
@@ -1011,8 +1083,8 @@
       <c r="AJ3" t="s">
         <v>42</v>
       </c>
-      <c r="AK3" t="s">
-        <v>42</v>
+      <c r="AK3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AL3" t="s">
         <v>42</v>
@@ -1020,8 +1092,8 @@
       <c r="AM3" t="s">
         <v>42</v>
       </c>
-      <c r="AN3" t="s">
-        <v>42</v>
+      <c r="AN3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AO3" t="s">
         <v>42</v>
@@ -1029,8 +1101,8 @@
       <c r="AP3" t="s">
         <v>42</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>42</v>
+      <c r="AQ3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AR3" t="s">
         <v>42</v>
@@ -1038,8 +1110,8 @@
       <c r="AS3" t="s">
         <v>42</v>
       </c>
-      <c r="AT3" t="s">
-        <v>42</v>
+      <c r="AT3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AU3" t="s">
         <v>42</v>
@@ -1047,8 +1119,8 @@
       <c r="AV3" t="s">
         <v>42</v>
       </c>
-      <c r="AW3" t="s">
-        <v>42</v>
+      <c r="AW3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AX3" t="s">
         <v>42</v>
@@ -1056,8 +1128,8 @@
       <c r="AY3" t="s">
         <v>42</v>
       </c>
-      <c r="AZ3" t="s">
-        <v>42</v>
+      <c r="AZ3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BA3" t="s">
         <v>42</v>
@@ -1065,8 +1137,8 @@
       <c r="BB3" t="s">
         <v>42</v>
       </c>
-      <c r="BC3" t="s">
-        <v>42</v>
+      <c r="BC3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BD3" t="s">
         <v>42</v>
@@ -1074,8 +1146,8 @@
       <c r="BE3" t="s">
         <v>42</v>
       </c>
-      <c r="BF3" t="s">
-        <v>42</v>
+      <c r="BF3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BG3" t="s">
         <v>42</v>
@@ -1083,8 +1155,8 @@
       <c r="BH3" t="s">
         <v>42</v>
       </c>
-      <c r="BI3" t="s">
-        <v>42</v>
+      <c r="BI3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BJ3" t="s">
         <v>42</v>
@@ -1092,8 +1164,8 @@
       <c r="BK3" t="s">
         <v>42</v>
       </c>
-      <c r="BL3" t="s">
-        <v>42</v>
+      <c r="BL3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BM3" t="s">
         <v>42</v>
@@ -1101,8 +1173,8 @@
       <c r="BN3" t="s">
         <v>42</v>
       </c>
-      <c r="BO3" t="s">
-        <v>42</v>
+      <c r="BO3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BP3" t="s">
         <v>42</v>
@@ -1110,8 +1182,8 @@
       <c r="BQ3" t="s">
         <v>42</v>
       </c>
-      <c r="BR3" t="s">
-        <v>42</v>
+      <c r="BR3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BS3" t="s">
         <v>42</v>
@@ -1119,8 +1191,8 @@
       <c r="BT3" t="s">
         <v>42</v>
       </c>
-      <c r="BU3" t="s">
-        <v>42</v>
+      <c r="BU3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BV3" t="s">
         <v>42</v>
@@ -1128,8 +1200,8 @@
       <c r="BW3" t="s">
         <v>42</v>
       </c>
-      <c r="BX3" t="s">
-        <v>42</v>
+      <c r="BX3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BY3" t="s">
         <v>42</v>
@@ -1137,8 +1209,8 @@
       <c r="BZ3" t="s">
         <v>42</v>
       </c>
-      <c r="CA3" t="s">
-        <v>42</v>
+      <c r="CA3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="CB3" t="s">
         <v>42</v>
@@ -1146,8 +1218,8 @@
       <c r="CC3" t="s">
         <v>42</v>
       </c>
-      <c r="CD3" t="s">
-        <v>42</v>
+      <c r="CD3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="CE3" t="s">
         <v>42</v>
@@ -1155,8 +1227,8 @@
       <c r="CF3" t="s">
         <v>42</v>
       </c>
-      <c r="CG3" t="s">
-        <v>42</v>
+      <c r="CG3" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -1683,8 +1755,8 @@
       <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
-        <v>42</v>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
@@ -1692,8 +1764,8 @@
       <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s">
-        <v>42</v>
+      <c r="G6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H6" t="s">
         <v>42</v>
@@ -1701,26 +1773,26 @@
       <c r="I6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" t="s">
-        <v>42</v>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q6" t="s">
         <v>42</v>
@@ -1728,8 +1800,8 @@
       <c r="R6" t="s">
         <v>42</v>
       </c>
-      <c r="S6" t="s">
-        <v>42</v>
+      <c r="S6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="T6" t="s">
         <v>42</v>
@@ -1737,8 +1809,8 @@
       <c r="U6" t="s">
         <v>42</v>
       </c>
-      <c r="V6" t="s">
-        <v>42</v>
+      <c r="V6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="W6" t="s">
         <v>42</v>
@@ -1746,8 +1818,8 @@
       <c r="X6" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" t="s">
-        <v>42</v>
+      <c r="Y6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Z6" t="s">
         <v>42</v>
@@ -1755,8 +1827,8 @@
       <c r="AA6" t="s">
         <v>42</v>
       </c>
-      <c r="AB6" t="s">
-        <v>42</v>
+      <c r="AB6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AC6" t="s">
         <v>42</v>
@@ -1764,26 +1836,26 @@
       <c r="AD6" t="s">
         <v>42</v>
       </c>
-      <c r="AE6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>42</v>
+      <c r="AE6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AL6" t="s">
         <v>42</v>
@@ -1791,8 +1863,8 @@
       <c r="AM6" t="s">
         <v>42</v>
       </c>
-      <c r="AN6" t="s">
-        <v>42</v>
+      <c r="AN6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AO6" t="s">
         <v>42</v>
@@ -1800,8 +1872,8 @@
       <c r="AP6" t="s">
         <v>42</v>
       </c>
-      <c r="AQ6" t="s">
-        <v>42</v>
+      <c r="AQ6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AR6" t="s">
         <v>42</v>
@@ -1809,8 +1881,8 @@
       <c r="AS6" t="s">
         <v>42</v>
       </c>
-      <c r="AT6" t="s">
-        <v>42</v>
+      <c r="AT6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AU6" t="s">
         <v>42</v>
@@ -1818,8 +1890,8 @@
       <c r="AV6" t="s">
         <v>42</v>
       </c>
-      <c r="AW6" t="s">
-        <v>42</v>
+      <c r="AW6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AX6" t="s">
         <v>42</v>
@@ -1827,26 +1899,26 @@
       <c r="AY6" t="s">
         <v>42</v>
       </c>
-      <c r="AZ6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>42</v>
+      <c r="AZ6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BG6" t="s">
         <v>42</v>
@@ -1854,8 +1926,8 @@
       <c r="BH6" t="s">
         <v>42</v>
       </c>
-      <c r="BI6" t="s">
-        <v>42</v>
+      <c r="BI6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BJ6" t="s">
         <v>42</v>
@@ -1863,8 +1935,8 @@
       <c r="BK6" t="s">
         <v>42</v>
       </c>
-      <c r="BL6" t="s">
-        <v>42</v>
+      <c r="BL6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BM6" t="s">
         <v>42</v>
@@ -1872,8 +1944,8 @@
       <c r="BN6" t="s">
         <v>42</v>
       </c>
-      <c r="BO6" t="s">
-        <v>42</v>
+      <c r="BO6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BP6" t="s">
         <v>42</v>
@@ -1881,8 +1953,8 @@
       <c r="BQ6" t="s">
         <v>42</v>
       </c>
-      <c r="BR6" t="s">
-        <v>42</v>
+      <c r="BR6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BS6" t="s">
         <v>42</v>
@@ -1890,26 +1962,26 @@
       <c r="BT6" t="s">
         <v>42</v>
       </c>
-      <c r="BU6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>42</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>42</v>
+      <c r="BU6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="CB6" t="s">
         <v>42</v>
@@ -1917,8 +1989,8 @@
       <c r="CC6" t="s">
         <v>42</v>
       </c>
-      <c r="CD6" t="s">
-        <v>42</v>
+      <c r="CD6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="CE6" t="s">
         <v>42</v>
@@ -1926,8 +1998,8 @@
       <c r="CF6" t="s">
         <v>42</v>
       </c>
-      <c r="CG6" t="s">
-        <v>42</v>
+      <c r="CG6" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -2454,8 +2526,8 @@
       <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
-        <v>42</v>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
@@ -2463,8 +2535,8 @@
       <c r="F9" t="s">
         <v>42</v>
       </c>
-      <c r="G9" t="s">
-        <v>42</v>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H9" t="s">
         <v>42</v>
@@ -2472,26 +2544,26 @@
       <c r="I9" t="s">
         <v>42</v>
       </c>
-      <c r="J9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" t="s">
-        <v>42</v>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q9" t="s">
         <v>42</v>
@@ -2499,8 +2571,8 @@
       <c r="R9" t="s">
         <v>42</v>
       </c>
-      <c r="S9" t="s">
-        <v>42</v>
+      <c r="S9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="T9" t="s">
         <v>42</v>
@@ -2508,8 +2580,8 @@
       <c r="U9" t="s">
         <v>42</v>
       </c>
-      <c r="V9" t="s">
-        <v>42</v>
+      <c r="V9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="W9" t="s">
         <v>42</v>
@@ -2517,8 +2589,8 @@
       <c r="X9" t="s">
         <v>42</v>
       </c>
-      <c r="Y9" t="s">
-        <v>42</v>
+      <c r="Y9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Z9" t="s">
         <v>42</v>
@@ -2526,8 +2598,8 @@
       <c r="AA9" t="s">
         <v>42</v>
       </c>
-      <c r="AB9" t="s">
-        <v>42</v>
+      <c r="AB9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AC9" t="s">
         <v>42</v>
@@ -2535,26 +2607,26 @@
       <c r="AD9" t="s">
         <v>42</v>
       </c>
-      <c r="AE9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>42</v>
+      <c r="AE9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AL9" t="s">
         <v>42</v>
@@ -2562,8 +2634,8 @@
       <c r="AM9" t="s">
         <v>42</v>
       </c>
-      <c r="AN9" t="s">
-        <v>42</v>
+      <c r="AN9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AO9" t="s">
         <v>42</v>
@@ -2571,8 +2643,8 @@
       <c r="AP9" t="s">
         <v>42</v>
       </c>
-      <c r="AQ9" t="s">
-        <v>42</v>
+      <c r="AQ9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AR9" t="s">
         <v>42</v>
@@ -2580,8 +2652,8 @@
       <c r="AS9" t="s">
         <v>42</v>
       </c>
-      <c r="AT9" t="s">
-        <v>42</v>
+      <c r="AT9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AU9" t="s">
         <v>42</v>
@@ -2589,8 +2661,8 @@
       <c r="AV9" t="s">
         <v>42</v>
       </c>
-      <c r="AW9" t="s">
-        <v>42</v>
+      <c r="AW9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AX9" t="s">
         <v>42</v>
@@ -2598,26 +2670,26 @@
       <c r="AY9" t="s">
         <v>42</v>
       </c>
-      <c r="AZ9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>42</v>
+      <c r="AZ9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BG9" t="s">
         <v>42</v>
@@ -2625,8 +2697,8 @@
       <c r="BH9" t="s">
         <v>42</v>
       </c>
-      <c r="BI9" t="s">
-        <v>42</v>
+      <c r="BI9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BJ9" t="s">
         <v>42</v>
@@ -2634,8 +2706,8 @@
       <c r="BK9" t="s">
         <v>42</v>
       </c>
-      <c r="BL9" t="s">
-        <v>42</v>
+      <c r="BL9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BM9" t="s">
         <v>42</v>
@@ -2643,8 +2715,8 @@
       <c r="BN9" t="s">
         <v>42</v>
       </c>
-      <c r="BO9" t="s">
-        <v>42</v>
+      <c r="BO9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BP9" t="s">
         <v>42</v>
@@ -2652,8 +2724,8 @@
       <c r="BQ9" t="s">
         <v>42</v>
       </c>
-      <c r="BR9" t="s">
-        <v>42</v>
+      <c r="BR9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BS9" t="s">
         <v>42</v>
@@ -2661,26 +2733,26 @@
       <c r="BT9" t="s">
         <v>42</v>
       </c>
-      <c r="BU9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>42</v>
-      </c>
-      <c r="CA9" t="s">
-        <v>42</v>
+      <c r="BU9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="CB9" t="s">
         <v>42</v>
@@ -2688,8 +2760,8 @@
       <c r="CC9" t="s">
         <v>42</v>
       </c>
-      <c r="CD9" t="s">
-        <v>42</v>
+      <c r="CD9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="CE9" t="s">
         <v>42</v>
@@ -2697,8 +2769,8 @@
       <c r="CF9" t="s">
         <v>42</v>
       </c>
-      <c r="CG9" t="s">
-        <v>42</v>
+      <c r="CG9" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -2711,8 +2783,8 @@
       <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
-        <v>42</v>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>42</v>
@@ -2720,8 +2792,8 @@
       <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="G10" t="s">
-        <v>42</v>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H10" t="s">
         <v>42</v>
@@ -2729,8 +2801,8 @@
       <c r="I10" t="s">
         <v>42</v>
       </c>
-      <c r="J10" t="s">
-        <v>42</v>
+      <c r="J10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K10" t="s">
         <v>42</v>
@@ -2738,8 +2810,8 @@
       <c r="L10" t="s">
         <v>42</v>
       </c>
-      <c r="M10" t="s">
-        <v>42</v>
+      <c r="M10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N10" t="s">
         <v>42</v>
@@ -2747,8 +2819,8 @@
       <c r="O10" t="s">
         <v>42</v>
       </c>
-      <c r="P10" t="s">
-        <v>42</v>
+      <c r="P10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q10" t="s">
         <v>42</v>
@@ -2756,8 +2828,8 @@
       <c r="R10" t="s">
         <v>42</v>
       </c>
-      <c r="S10" t="s">
-        <v>42</v>
+      <c r="S10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="T10" t="s">
         <v>42</v>
@@ -2765,8 +2837,8 @@
       <c r="U10" t="s">
         <v>42</v>
       </c>
-      <c r="V10" t="s">
-        <v>42</v>
+      <c r="V10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="W10" t="s">
         <v>42</v>
@@ -2774,8 +2846,8 @@
       <c r="X10" t="s">
         <v>42</v>
       </c>
-      <c r="Y10" t="s">
-        <v>42</v>
+      <c r="Y10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Z10" t="s">
         <v>42</v>
@@ -2783,8 +2855,8 @@
       <c r="AA10" t="s">
         <v>42</v>
       </c>
-      <c r="AB10" t="s">
-        <v>42</v>
+      <c r="AB10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AC10" t="s">
         <v>42</v>
@@ -2792,8 +2864,8 @@
       <c r="AD10" t="s">
         <v>42</v>
       </c>
-      <c r="AE10" t="s">
-        <v>42</v>
+      <c r="AE10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AF10" t="s">
         <v>42</v>
@@ -2801,8 +2873,8 @@
       <c r="AG10" t="s">
         <v>42</v>
       </c>
-      <c r="AH10" t="s">
-        <v>42</v>
+      <c r="AH10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AI10" t="s">
         <v>42</v>
@@ -2810,8 +2882,8 @@
       <c r="AJ10" t="s">
         <v>42</v>
       </c>
-      <c r="AK10" t="s">
-        <v>42</v>
+      <c r="AK10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AL10" t="s">
         <v>42</v>
@@ -2819,8 +2891,8 @@
       <c r="AM10" t="s">
         <v>42</v>
       </c>
-      <c r="AN10" t="s">
-        <v>42</v>
+      <c r="AN10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AO10" t="s">
         <v>42</v>
@@ -2828,8 +2900,8 @@
       <c r="AP10" t="s">
         <v>42</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>42</v>
+      <c r="AQ10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AR10" t="s">
         <v>42</v>
@@ -2837,8 +2909,8 @@
       <c r="AS10" t="s">
         <v>42</v>
       </c>
-      <c r="AT10" t="s">
-        <v>42</v>
+      <c r="AT10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AU10" t="s">
         <v>42</v>
@@ -2846,8 +2918,8 @@
       <c r="AV10" t="s">
         <v>42</v>
       </c>
-      <c r="AW10" t="s">
-        <v>42</v>
+      <c r="AW10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AX10" t="s">
         <v>42</v>
@@ -2855,8 +2927,8 @@
       <c r="AY10" t="s">
         <v>42</v>
       </c>
-      <c r="AZ10" t="s">
-        <v>42</v>
+      <c r="AZ10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BA10" t="s">
         <v>42</v>
@@ -2864,8 +2936,8 @@
       <c r="BB10" t="s">
         <v>42</v>
       </c>
-      <c r="BC10" t="s">
-        <v>42</v>
+      <c r="BC10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BD10" t="s">
         <v>42</v>
@@ -2873,8 +2945,8 @@
       <c r="BE10" t="s">
         <v>42</v>
       </c>
-      <c r="BF10" t="s">
-        <v>42</v>
+      <c r="BF10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BG10" t="s">
         <v>42</v>
@@ -2882,8 +2954,8 @@
       <c r="BH10" t="s">
         <v>42</v>
       </c>
-      <c r="BI10" t="s">
-        <v>42</v>
+      <c r="BI10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BJ10" t="s">
         <v>42</v>
@@ -2891,8 +2963,8 @@
       <c r="BK10" t="s">
         <v>42</v>
       </c>
-      <c r="BL10" t="s">
-        <v>42</v>
+      <c r="BL10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BM10" t="s">
         <v>42</v>
@@ -2900,8 +2972,8 @@
       <c r="BN10" t="s">
         <v>42</v>
       </c>
-      <c r="BO10" t="s">
-        <v>42</v>
+      <c r="BO10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BP10" t="s">
         <v>42</v>
@@ -2909,8 +2981,8 @@
       <c r="BQ10" t="s">
         <v>42</v>
       </c>
-      <c r="BR10" t="s">
-        <v>42</v>
+      <c r="BR10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BS10" t="s">
         <v>42</v>
@@ -2918,8 +2990,8 @@
       <c r="BT10" t="s">
         <v>42</v>
       </c>
-      <c r="BU10" t="s">
-        <v>42</v>
+      <c r="BU10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BV10" t="s">
         <v>42</v>
@@ -2927,8 +2999,8 @@
       <c r="BW10" t="s">
         <v>42</v>
       </c>
-      <c r="BX10" t="s">
-        <v>42</v>
+      <c r="BX10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="BY10" t="s">
         <v>42</v>
@@ -2936,8 +3008,8 @@
       <c r="BZ10" t="s">
         <v>42</v>
       </c>
-      <c r="CA10" t="s">
-        <v>42</v>
+      <c r="CA10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="CB10" t="s">
         <v>42</v>
@@ -2945,8 +3017,8 @@
       <c r="CC10" t="s">
         <v>42</v>
       </c>
-      <c r="CD10" t="s">
-        <v>42</v>
+      <c r="CD10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="CE10" t="s">
         <v>42</v>
@@ -2954,8 +3026,8 @@
       <c r="CF10" t="s">
         <v>42</v>
       </c>
-      <c r="CG10" t="s">
-        <v>42</v>
+      <c r="CG10" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -6685,6 +6757,6174 @@
         <v>43</v>
       </c>
       <c r="CG13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T14" t="s">
+        <v>43</v>
+      </c>
+      <c r="U14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W14" t="s">
+        <v>43</v>
+      </c>
+      <c r="X14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>43</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U15" t="s">
+        <v>43</v>
+      </c>
+      <c r="V15" t="s">
+        <v>43</v>
+      </c>
+      <c r="W15" t="s">
+        <v>43</v>
+      </c>
+      <c r="X15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T16" t="s">
+        <v>43</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V16" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" t="s">
+        <v>43</v>
+      </c>
+      <c r="U17" t="s">
+        <v>43</v>
+      </c>
+      <c r="V17" t="s">
+        <v>43</v>
+      </c>
+      <c r="W17" t="s">
+        <v>43</v>
+      </c>
+      <c r="X17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S18" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" t="s">
+        <v>43</v>
+      </c>
+      <c r="U18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S19" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" t="s">
+        <v>43</v>
+      </c>
+      <c r="U19" t="s">
+        <v>43</v>
+      </c>
+      <c r="V19" t="s">
+        <v>43</v>
+      </c>
+      <c r="W19" t="s">
+        <v>43</v>
+      </c>
+      <c r="X19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" t="s">
+        <v>43</v>
+      </c>
+      <c r="U20" t="s">
+        <v>43</v>
+      </c>
+      <c r="V20" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" t="s">
+        <v>43</v>
+      </c>
+      <c r="X20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC20" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" t="s">
+        <v>43</v>
+      </c>
+      <c r="S21" t="s">
+        <v>43</v>
+      </c>
+      <c r="T21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>43</v>
+      </c>
+      <c r="R22" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" t="s">
+        <v>43</v>
+      </c>
+      <c r="T22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U22" t="s">
+        <v>43</v>
+      </c>
+      <c r="V22" t="s">
+        <v>43</v>
+      </c>
+      <c r="W22" t="s">
+        <v>43</v>
+      </c>
+      <c r="X22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" t="s">
+        <v>43</v>
+      </c>
+      <c r="S23" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V23" t="s">
+        <v>43</v>
+      </c>
+      <c r="W23" t="s">
+        <v>43</v>
+      </c>
+      <c r="X23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC23" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" t="s">
+        <v>43</v>
+      </c>
+      <c r="O24" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U24" t="s">
+        <v>43</v>
+      </c>
+      <c r="V24" t="s">
+        <v>43</v>
+      </c>
+      <c r="W24" t="s">
+        <v>43</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC24" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE24" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" t="s">
+        <v>43</v>
+      </c>
+      <c r="O25" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" t="s">
+        <v>43</v>
+      </c>
+      <c r="S25" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25" t="s">
+        <v>43</v>
+      </c>
+      <c r="U25" t="s">
+        <v>43</v>
+      </c>
+      <c r="V25" t="s">
+        <v>43</v>
+      </c>
+      <c r="W25" t="s">
+        <v>43</v>
+      </c>
+      <c r="X25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC25" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE25" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" t="s">
+        <v>43</v>
+      </c>
+      <c r="O26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W26" t="s">
+        <v>43</v>
+      </c>
+      <c r="X26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC26" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE26" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF26" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O27" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S27" t="s">
+        <v>43</v>
+      </c>
+      <c r="T27" t="s">
+        <v>43</v>
+      </c>
+      <c r="U27" t="s">
+        <v>43</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W27" t="s">
+        <v>43</v>
+      </c>
+      <c r="X27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC27" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD27" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE27" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF27" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" t="s">
+        <v>43</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>43</v>
+      </c>
+      <c r="R28" t="s">
+        <v>43</v>
+      </c>
+      <c r="S28" t="s">
+        <v>43</v>
+      </c>
+      <c r="T28" t="s">
+        <v>43</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V28" t="s">
+        <v>43</v>
+      </c>
+      <c r="W28" t="s">
+        <v>43</v>
+      </c>
+      <c r="X28" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ28" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA28" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB28" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC28" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD28" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE28" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF28" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" t="s">
+        <v>43</v>
+      </c>
+      <c r="O29" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" t="s">
+        <v>43</v>
+      </c>
+      <c r="U29" t="s">
+        <v>43</v>
+      </c>
+      <c r="V29" t="s">
+        <v>43</v>
+      </c>
+      <c r="W29" t="s">
+        <v>43</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ29" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA29" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB29" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC29" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD29" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF29" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" t="s">
+        <v>43</v>
+      </c>
+      <c r="O30" t="s">
+        <v>43</v>
+      </c>
+      <c r="P30" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>43</v>
+      </c>
+      <c r="R30" t="s">
+        <v>43</v>
+      </c>
+      <c r="S30" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" t="s">
+        <v>43</v>
+      </c>
+      <c r="U30" t="s">
+        <v>43</v>
+      </c>
+      <c r="V30" t="s">
+        <v>43</v>
+      </c>
+      <c r="W30" t="s">
+        <v>43</v>
+      </c>
+      <c r="X30" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA30" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB30" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC30" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD30" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE30" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF30" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N31" t="s">
+        <v>43</v>
+      </c>
+      <c r="O31" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R31" t="s">
+        <v>43</v>
+      </c>
+      <c r="S31" t="s">
+        <v>43</v>
+      </c>
+      <c r="T31" t="s">
+        <v>43</v>
+      </c>
+      <c r="U31" t="s">
+        <v>43</v>
+      </c>
+      <c r="V31" t="s">
+        <v>43</v>
+      </c>
+      <c r="W31" t="s">
+        <v>43</v>
+      </c>
+      <c r="X31" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ31" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA31" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC31" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD31" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE31" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF31" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG31" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" t="s">
+        <v>43</v>
+      </c>
+      <c r="M32" t="s">
+        <v>43</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O32" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>43</v>
+      </c>
+      <c r="R32" t="s">
+        <v>43</v>
+      </c>
+      <c r="S32" t="s">
+        <v>43</v>
+      </c>
+      <c r="T32" t="s">
+        <v>43</v>
+      </c>
+      <c r="U32" t="s">
+        <v>43</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W32" t="s">
+        <v>43</v>
+      </c>
+      <c r="X32" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" t="s">
+        <v>43</v>
+      </c>
+      <c r="L33" t="s">
+        <v>43</v>
+      </c>
+      <c r="M33" t="s">
+        <v>43</v>
+      </c>
+      <c r="N33" t="s">
+        <v>43</v>
+      </c>
+      <c r="O33" t="s">
+        <v>43</v>
+      </c>
+      <c r="P33" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>43</v>
+      </c>
+      <c r="R33" t="s">
+        <v>43</v>
+      </c>
+      <c r="S33" t="s">
+        <v>43</v>
+      </c>
+      <c r="T33" t="s">
+        <v>43</v>
+      </c>
+      <c r="U33" t="s">
+        <v>43</v>
+      </c>
+      <c r="V33" t="s">
+        <v>43</v>
+      </c>
+      <c r="W33" t="s">
+        <v>43</v>
+      </c>
+      <c r="X33" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG33" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" t="s">
+        <v>43</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O34" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>43</v>
+      </c>
+      <c r="R34" t="s">
+        <v>43</v>
+      </c>
+      <c r="S34" t="s">
+        <v>43</v>
+      </c>
+      <c r="T34" t="s">
+        <v>43</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V34" t="s">
+        <v>43</v>
+      </c>
+      <c r="W34" t="s">
+        <v>43</v>
+      </c>
+      <c r="X34" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" t="s">
+        <v>43</v>
+      </c>
+      <c r="N35" t="s">
+        <v>43</v>
+      </c>
+      <c r="O35" t="s">
+        <v>43</v>
+      </c>
+      <c r="P35" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>43</v>
+      </c>
+      <c r="R35" t="s">
+        <v>43</v>
+      </c>
+      <c r="S35" t="s">
+        <v>43</v>
+      </c>
+      <c r="T35" t="s">
+        <v>43</v>
+      </c>
+      <c r="U35" t="s">
+        <v>43</v>
+      </c>
+      <c r="V35" t="s">
+        <v>43</v>
+      </c>
+      <c r="W35" t="s">
+        <v>43</v>
+      </c>
+      <c r="X35" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ35" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA35" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB35" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC35" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD35" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF35" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" t="s">
+        <v>43</v>
+      </c>
+      <c r="L36" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" t="s">
+        <v>43</v>
+      </c>
+      <c r="N36" t="s">
+        <v>43</v>
+      </c>
+      <c r="O36" t="s">
+        <v>43</v>
+      </c>
+      <c r="P36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>43</v>
+      </c>
+      <c r="R36" t="s">
+        <v>43</v>
+      </c>
+      <c r="S36" t="s">
+        <v>43</v>
+      </c>
+      <c r="T36" t="s">
+        <v>43</v>
+      </c>
+      <c r="U36" t="s">
+        <v>43</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W36" t="s">
+        <v>43</v>
+      </c>
+      <c r="X36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC36" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD36" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE36" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF36" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" t="s">
+        <v>43</v>
+      </c>
+      <c r="N37" t="s">
+        <v>43</v>
+      </c>
+      <c r="O37" t="s">
+        <v>43</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>43</v>
+      </c>
+      <c r="R37" t="s">
+        <v>43</v>
+      </c>
+      <c r="S37" t="s">
+        <v>43</v>
+      </c>
+      <c r="T37" t="s">
+        <v>43</v>
+      </c>
+      <c r="U37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V37" t="s">
+        <v>43</v>
+      </c>
+      <c r="W37" t="s">
+        <v>43</v>
+      </c>
+      <c r="X37" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA37" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB37" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC37" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD37" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE37" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF37" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG37" t="s">
         <v>43</v>
       </c>
     </row>
@@ -6740,7 +12980,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -6748,7 +12988,7 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -6756,7 +12996,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -6764,7 +13004,7 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -6772,7 +13012,7 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -6780,7 +13020,7 @@
         <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -6788,7 +13028,7 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
@@ -6796,7 +13036,7 @@
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -6804,7 +13044,7 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -6812,7 +13052,7 @@
         <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -6820,7 +13060,7 @@
         <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -6828,7 +13068,199 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
         <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -6850,937 +13282,937 @@
     <row r="1"/>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
         <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="s">
         <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="C66" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="B71" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C73" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="C75" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="B77" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="C77" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B79" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="C79" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="B80" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B82" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C82" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="C83" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B85" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C85" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -7805,7 +14237,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
@@ -7813,7 +14245,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -7821,7 +14253,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -7829,7 +14261,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -7837,7 +14269,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -7845,7 +14277,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -7853,7 +14285,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
@@ -7861,7 +14293,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -7869,7 +14301,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -7877,7 +14309,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -7885,7 +14317,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -7912,12 +14344,12 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
